--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Btc-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Btc-Erbb2.xlsx
@@ -546,34 +546,34 @@
         <v>0.745045223303102</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N2">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q2">
-        <v>0.493068138523889</v>
+        <v>0.7876736776944445</v>
       </c>
       <c r="R2">
-        <v>4.437613246715</v>
+        <v>7.089063099250001</v>
       </c>
       <c r="S2">
-        <v>0.1113572884686864</v>
+        <v>0.1633085858138655</v>
       </c>
       <c r="T2">
-        <v>0.1113572884686864</v>
+        <v>0.1633085858138655</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>14.919985</v>
       </c>
       <c r="O3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q3">
         <v>1.597998362320556</v>
@@ -632,10 +632,10 @@
         <v>14.381985260885</v>
       </c>
       <c r="S3">
-        <v>0.3609009601353446</v>
+        <v>0.3313134107100094</v>
       </c>
       <c r="T3">
-        <v>0.3609009601353446</v>
+        <v>0.3313134107100094</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>11.27727</v>
       </c>
       <c r="O4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q4">
         <v>1.20784699123</v>
@@ -694,10 +694,10 @@
         <v>10.87062292107</v>
       </c>
       <c r="S4">
-        <v>0.2727869746990709</v>
+        <v>0.2504232267792271</v>
       </c>
       <c r="T4">
-        <v>0.2727869746990709</v>
+        <v>0.2504232267792271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,34 +732,34 @@
         <v>0.254954776696898</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N5">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q5">
-        <v>0.1687281163905556</v>
+        <v>0.2695422510277778</v>
       </c>
       <c r="R5">
-        <v>1.518553047515</v>
+        <v>2.42588025925</v>
       </c>
       <c r="S5">
-        <v>0.03810650914482253</v>
+        <v>0.05588426410449135</v>
       </c>
       <c r="T5">
-        <v>0.03810650914482253</v>
+        <v>0.05588426410449135</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>14.919985</v>
       </c>
       <c r="O6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q6">
         <v>0.5468356857872223</v>
@@ -818,10 +818,10 @@
         <v>4.921521172085001</v>
       </c>
       <c r="S6">
-        <v>0.1235004545000212</v>
+        <v>0.113375583122011</v>
       </c>
       <c r="T6">
-        <v>0.1235004545000212</v>
+        <v>0.113375583122011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>11.27727</v>
       </c>
       <c r="O7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q7">
         <v>0.41332572883</v>
@@ -880,10 +880,10 @@
         <v>3.71993155947</v>
       </c>
       <c r="S7">
-        <v>0.09334781305205425</v>
+        <v>0.08569492947039564</v>
       </c>
       <c r="T7">
-        <v>0.09334781305205425</v>
+        <v>0.08569492947039564</v>
       </c>
     </row>
   </sheetData>
